--- a/vlc-3.0.0.xlsx
+++ b/vlc-3.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2680" windowWidth="27120" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="7040" yWindow="460" windowWidth="18480" windowHeight="12560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>GCR</t>
   </si>
@@ -101,18 +101,6 @@
     <t>Swing R</t>
   </si>
   <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>1.63</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
     <t>StepHeigh L</t>
   </si>
   <si>
@@ -183,6 +171,12 @@
   </si>
   <si>
     <t>ElevationToe L min</t>
+  </si>
+  <si>
+    <t>CadenceR</t>
+  </si>
+  <si>
+    <t>CadenceL</t>
   </si>
 </sst>
 </file>
@@ -213,12 +207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +236,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,390 +522,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="23.83203125" customWidth="1"/>
-    <col min="23" max="23" width="19.6640625" customWidth="1"/>
-    <col min="24" max="24" width="22.5" customWidth="1"/>
-    <col min="25" max="25" width="22.1640625" customWidth="1"/>
-    <col min="26" max="26" width="20.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.1640625" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" customWidth="1"/>
-    <col min="29" max="29" width="21.1640625" customWidth="1"/>
-    <col min="30" max="30" width="22.33203125" customWidth="1"/>
-    <col min="31" max="31" width="18.33203125" customWidth="1"/>
-    <col min="32" max="32" width="24.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" customWidth="1"/>
-    <col min="34" max="34" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="23.83203125" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.5" customWidth="1"/>
+    <col min="27" max="27" width="22.1640625" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" customWidth="1"/>
+    <col min="29" max="29" width="25.1640625" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" customWidth="1"/>
+    <col min="31" max="31" width="21.1640625" customWidth="1"/>
+    <col min="32" max="32" width="22.33203125" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" customWidth="1"/>
+    <col min="34" max="34" width="24.6640625" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" customWidth="1"/>
+    <col min="36" max="36" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="X3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Y3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>40</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AB3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
         <v>42</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AG3" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <f>250/100</f>
-        <v>2.5</v>
+      <c r="C4" s="6">
+        <f>G4+J4</f>
+        <v>2.3899999999999997</v>
       </c>
       <c r="D4">
-        <f>50/B1</f>
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5">
+        <f>120/C4</f>
+        <v>50.209205020920507</v>
+      </c>
+      <c r="E4">
+        <f>120/F4</f>
+        <v>57.416267942583737</v>
+      </c>
+      <c r="F4" s="6">
+        <f>H4+I4</f>
+        <v>2.09</v>
+      </c>
+      <c r="G4">
+        <v>1.63</v>
+      </c>
+      <c r="H4">
+        <v>1.43</v>
+      </c>
+      <c r="I4">
+        <v>0.66</v>
+      </c>
+      <c r="J4">
+        <v>0.76</v>
+      </c>
+      <c r="K4" s="4">
         <v>121.34610000000001</v>
       </c>
-      <c r="J4" s="5">
+      <c r="L4" s="4">
         <v>131.88220000000001</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>544.35059999999999</v>
       </c>
-      <c r="L4" s="5">
+      <c r="N4" s="4">
         <v>560.72469999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <f>249/100</f>
-        <v>2.4900000000000002</v>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C15" si="0">G5+J5</f>
+        <v>2.31</v>
       </c>
       <c r="D5">
-        <f>(400-51)/B1</f>
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D5:D15" si="1">120/C5</f>
+        <v>51.948051948051948</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E15" si="2">120/F5</f>
+        <v>53.097345132743371</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F15" si="3">H5+I5</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.71</v>
+      </c>
+      <c r="H5">
+        <v>1.74</v>
+      </c>
+      <c r="I5">
+        <v>0.52</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <f>199/100</f>
-        <v>1.99</v>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.09</v>
       </c>
       <c r="D6">
-        <f>(600-401)/B1</f>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>57.416267942583737</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>54.054054054054063</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="G6">
+        <v>1.47</v>
+      </c>
+      <c r="H6">
+        <v>1.64</v>
+      </c>
+      <c r="I6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <f>199/100</f>
-        <v>1.99</v>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D7">
-        <f>(800-601)/B1</f>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>132/100</f>
-        <v>1.32</v>
-      </c>
-      <c r="D8">
-        <f>(1033-800)/B1</f>
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>55.045871559633021</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7">
+        <v>1.56</v>
+      </c>
+      <c r="H7">
+        <v>1.52</v>
+      </c>
+      <c r="I7">
+        <v>0.68</v>
+      </c>
+      <c r="J7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <f>200/100</f>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>55.045871559633021</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>55.813953488372093</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>2.15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I9">
+        <v>0.63</v>
+      </c>
+      <c r="J9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>54.298642533936651</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>51.724137931034484</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>57.692307692307693</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.08</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="I11">
+        <v>0.62</v>
+      </c>
+      <c r="J11">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>50.847457627118644</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.36</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I13">
+        <v>0.66</v>
+      </c>
+      <c r="J13">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>52.631578947368418</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>51.948051948051948</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.31</v>
+      </c>
+      <c r="G14">
+        <v>1.56</v>
+      </c>
+      <c r="H14">
+        <v>1.56</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="44" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W44" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
-        <f>200/100</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f>(470-201)/100</f>
-        <v>2.69</v>
-      </c>
-      <c r="D10">
-        <f>(500-201)/B1</f>
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <f>(700-471)/100</f>
-        <v>2.29</v>
-      </c>
-      <c r="D11">
-        <f>(700-501)/B1</f>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <f>(851-701)/100</f>
-        <v>1.5</v>
-      </c>
-      <c r="D12">
-        <f>(857-701)/B1</f>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <f>200/B1</f>
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f>(300-50)/100</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <f>(459-201)/B1</f>
-        <v>2.58</v>
-      </c>
-      <c r="D14">
-        <f>(550-301)/100</f>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <f>(737-451)/B1</f>
-        <v>2.86</v>
-      </c>
-      <c r="D15">
-        <f>(737-551)/100</f>
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U45" t="s">
+    </row>
+    <row r="45" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U46" t="s">
+    <row r="46" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U47" s="1" t="s">
+    <row r="47" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V47" t="s">
+      <c r="X47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U48" s="3" t="s">
+    <row r="48" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V48" t="s">
+      <c r="X48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U49" s="4" t="s">
+    <row r="49" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" t="s">
+      <c r="X49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U50" t="s">
+    <row r="50" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W50" t="s">
         <v>11</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U51" t="s">
+    <row r="51" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
         <v>12</v>
       </c>
-      <c r="V51" t="s">
+      <c r="X51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U52" t="s">
+    <row r="52" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
         <v>13</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
         <v>19</v>
       </c>
     </row>

--- a/vlc-3.0.0.xlsx
+++ b/vlc-3.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="460" windowWidth="21000" windowHeight="12900" tabRatio="500"/>
+    <workbookView xWindow="6600" yWindow="460" windowWidth="19000" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>GC=gait cycle</t>
   </si>
@@ -222,6 +222,57 @@
   </si>
   <si>
     <t>ElevationAngle</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>Hindlimb</t>
+  </si>
+  <si>
+    <t>endpoint trajectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trajectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Endpoint</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>Hip and</t>
+  </si>
+  <si>
+    <t>Ankle angle</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>knee &amp; toe</t>
+  </si>
+  <si>
+    <t>Ankle &amp;</t>
+  </si>
+  <si>
+    <t>Toe</t>
+  </si>
+  <si>
+    <t>EMG analysis</t>
+  </si>
+  <si>
+    <t>pc after EMG</t>
+  </si>
+  <si>
+    <t>EMG analysis LTA</t>
   </si>
 </sst>
 </file>
@@ -243,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +349,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF00202"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF56963"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -311,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -325,14 +424,140 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFF56963"/>
+      <color rgb="FFFF0202"/>
+      <color rgb="FFF00202"/>
       <color rgb="FFFF3CE9"/>
     </mruColors>
   </colors>
@@ -342,6 +567,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A85:B90" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1" headerRowDxfId="9"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="10" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A94:B100" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" name="PC1" headerRowDxfId="5" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D86:E89" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A104:B108" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="3" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D95:E101" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="D106:E108" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="PC2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A111:B118" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="1" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A120:B123" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="PC1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="D114:E116" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" name="PC2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,21 +922,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X70"/>
+  <dimension ref="A3:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" customWidth="1"/>
@@ -658,7 +973,7 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="4"/>
@@ -669,7 +984,7 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -677,7 +992,7 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -685,7 +1000,7 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="5"/>
@@ -695,10 +1010,9 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -721,7 +1035,7 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -729,7 +1043,7 @@
       <c r="A15" s="10">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -740,24 +1054,27 @@
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>36</v>
       </c>
@@ -765,45 +1082,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>38</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>11</v>
       </c>
@@ -811,31 +1128,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>13</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>14</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>15</v>
       </c>
@@ -850,6 +1168,7 @@
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
@@ -871,7 +1190,7 @@
       <c r="A36" s="11">
         <v>23</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -879,9 +1198,10 @@
       <c r="A37" s="11">
         <v>24</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
@@ -890,13 +1210,14 @@
       <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>26</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="5"/>
@@ -947,6 +1268,7 @@
       <c r="B48" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C48" s="16"/>
       <c r="W48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1336,7 @@
       <c r="A53" s="12">
         <v>28</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1022,7 +1344,7 @@
       <c r="A54" s="12">
         <v>29</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1030,7 +1352,7 @@
       <c r="A55" s="12">
         <v>30</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1038,7 +1360,7 @@
       <c r="A56" s="12">
         <v>31</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1046,7 +1368,7 @@
       <c r="A57" s="12">
         <v>32</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1054,15 +1376,16 @@
       <c r="A58" s="12">
         <v>33</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>34</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1071,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>41</v>
       </c>
@@ -1079,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>42</v>
       </c>
@@ -1087,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>43</v>
       </c>
@@ -1095,7 +1418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44</v>
       </c>
@@ -1103,7 +1426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>45</v>
       </c>
@@ -1111,17 +1434,374 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>46</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86"/>
+      <c r="E86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="20">
+        <v>2</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" s="17">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="21">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="17">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="21">
+        <v>4</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89"/>
+      <c r="D89" s="16">
+        <v>35</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="22">
+        <v>5</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="5"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="5"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="17">
+        <v>7</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95"/>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="23">
+        <v>8</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96"/>
+      <c r="D96" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="18">
+        <v>37</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98" s="17">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="18">
+        <v>39</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99"/>
+      <c r="D99" s="17">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>40</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100"/>
+      <c r="D100" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="5"/>
+      <c r="C101"/>
+      <c r="D101" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="17">
+        <v>13</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="17">
+        <v>14</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="16">
+        <v>23</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" s="16">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="16">
+        <v>26</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108"/>
+      <c r="D108" s="5"/>
+      <c r="E108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="5"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="17">
+        <v>28</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="16">
+        <v>29</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="16">
+        <v>30</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114" s="5"/>
+      <c r="E114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="19">
+        <v>31</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115" s="17">
+        <v>43</v>
+      </c>
+      <c r="E115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="17">
+        <v>32</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="16">
+        <v>33</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="13">
+        <v>34</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="5"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="16">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="17">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="35" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+  <tableParts count="9">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>